--- a/src/main/resources/input/Waterschapshuis/props/Waterschapshuis.xlsx
+++ b/src/main/resources/input/Waterschapshuis/props/Waterschapshuis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\gitprojects\Imvertor-Maven\src\main\resources\input\Waterschapshuis\props\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BAF2061-BCDB-4564-A76B-31F7F28B79BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302A6FAA-C56D-4ADB-866C-8EC337F2DD0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="20057" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="354">
   <si>
     <t>Name</t>
   </si>
@@ -847,9 +847,6 @@
     <t>Specify the type of office file. Multiple formats are allowed, separate list by whitespace.</t>
   </si>
   <si>
-    <t>respec msword</t>
-  </si>
-  <si>
     <t>createskos</t>
   </si>
   <si>
@@ -1057,10 +1054,40 @@
     <t>http://www.waterschapshuis.nl/schemas</t>
   </si>
   <si>
-    <t>Waterschapshuis-CONCEPTUAL</t>
-  </si>
-  <si>
-    <t>Waterschapshuis-LOGICAL</t>
+    <t>metamodelname</t>
+  </si>
+  <si>
+    <t>Name of the metamodel. When this is a MIM model, specify MIM</t>
+  </si>
+  <si>
+    <t>MIM</t>
+  </si>
+  <si>
+    <t>metamodelversion</t>
+  </si>
+  <si>
+    <t>Version of the metamodel. When this is a MIM model, specify the MIM version</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>metamodelextension</t>
+  </si>
+  <si>
+    <t>Name of the extension. When this is a MIM model, specify the MIM extension name</t>
+  </si>
+  <si>
+    <t>CONCEPTUAL</t>
+  </si>
+  <si>
+    <t>LOGICAL</t>
+  </si>
+  <si>
+    <t>metamodelextensionversion</t>
+  </si>
+  <si>
+    <t>Vetsion of the extension. When this is a MIM model, specify the MIM extension version</t>
   </si>
 </sst>
 </file>
@@ -1533,18 +1560,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U123"/>
+  <dimension ref="A1:U127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="E106" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F122" sqref="F122"/>
+      <selection pane="bottomRight" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="23.84375" customWidth="1"/>
+    <col min="1" max="1" width="34.23046875" customWidth="1"/>
     <col min="2" max="2" width="19.3046875" customWidth="1"/>
     <col min="3" max="3" width="50.69140625" customWidth="1"/>
     <col min="4" max="4" width="13.23046875" customWidth="1"/>
@@ -1624,35 +1651,35 @@
       <c r="F2" s="2"/>
       <c r="G2" s="13"/>
       <c r="H2" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>310</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M2" s="13"/>
       <c r="N2" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>314</v>
-      </c>
       <c r="R2" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="S2" s="13"/>
       <c r="T2"/>
@@ -2031,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G18" s="14"/>
       <c r="M18" s="14"/>
@@ -2076,7 +2103,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G20" s="14"/>
       <c r="M20" s="14"/>
@@ -2100,7 +2127,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G21" s="14"/>
       <c r="M21" s="14"/>
@@ -2307,13 +2334,13 @@
     </row>
     <row r="27" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D27" s="1" t="b">
         <v>0</v>
@@ -2357,13 +2384,13 @@
     </row>
     <row r="28" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D28" s="1" t="b">
         <v>0</v>
@@ -2522,7 +2549,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G32" s="14"/>
       <c r="M32" s="14"/>
@@ -2531,13 +2558,13 @@
     </row>
     <row r="33" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D33" s="1" t="b">
         <v>0</v>
@@ -2629,7 +2656,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G36" s="14"/>
       <c r="M36" s="14"/>
@@ -2653,40 +2680,10 @@
         <v>1</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>273</v>
+        <v>316</v>
       </c>
       <c r="G37" s="14"/>
-      <c r="H37" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>317</v>
-      </c>
       <c r="M37" s="14"/>
-      <c r="N37" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q37" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="R37" s="1" t="s">
-        <v>317</v>
-      </c>
       <c r="S37" s="14"/>
       <c r="T37"/>
     </row>
@@ -2743,13 +2740,13 @@
     </row>
     <row r="39" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A39" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B39" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D39" s="18" t="b">
         <v>0</v>
@@ -3129,7 +3126,7 @@
       <c r="S51" s="14"/>
       <c r="T51"/>
     </row>
-    <row r="52" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
         <v>221</v>
       </c>
@@ -3142,21 +3139,6 @@
         <v>0</v>
       </c>
       <c r="G52" s="15"/>
-      <c r="H52" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>343</v>
-      </c>
       <c r="M52" s="15"/>
       <c r="S52" s="15"/>
       <c r="T52"/>
@@ -3307,13 +3289,13 @@
     </row>
     <row r="59" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D59" s="1" t="b">
         <v>0</v>
@@ -3354,13 +3336,13 @@
     </row>
     <row r="60" spans="1:20" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A60" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B60" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D60" s="11" t="b">
         <v>0</v>
@@ -3385,22 +3367,22 @@
     </row>
     <row r="61" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A61" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="C61" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="D61" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E61" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F61" s="5" t="s">
         <v>285</v>
-      </c>
-      <c r="D61" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E61" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>286</v>
       </c>
       <c r="G61" s="14"/>
       <c r="M61" s="14"/>
@@ -3409,13 +3391,13 @@
     </row>
     <row r="62" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A62" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D62" s="5" t="b">
         <v>0</v>
@@ -3462,13 +3444,13 @@
     </row>
     <row r="64" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B64" t="s">
         <v>82</v>
       </c>
       <c r="C64" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D64" t="b">
         <v>0</v>
@@ -3477,7 +3459,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G64" s="14"/>
       <c r="M64" s="14"/>
@@ -3486,22 +3468,22 @@
     </row>
     <row r="65" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B65" t="s">
         <v>82</v>
       </c>
       <c r="C65" t="s">
+        <v>297</v>
+      </c>
+      <c r="D65" t="b">
+        <v>0</v>
+      </c>
+      <c r="E65" t="b">
+        <v>1</v>
+      </c>
+      <c r="F65" t="s">
         <v>298</v>
-      </c>
-      <c r="D65" t="b">
-        <v>0</v>
-      </c>
-      <c r="E65" t="b">
-        <v>1</v>
-      </c>
-      <c r="F65" t="s">
-        <v>299</v>
       </c>
       <c r="G65" s="14"/>
       <c r="M65" s="14"/>
@@ -3525,7 +3507,7 @@
         <v>1</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G66" s="16"/>
       <c r="H66" s="11"/>
@@ -3591,13 +3573,13 @@
     </row>
     <row r="69" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B69" t="s">
         <v>5</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D69" s="1" t="b">
         <v>0</v>
@@ -3702,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G73" s="14"/>
       <c r="M73" s="14"/>
@@ -3757,7 +3739,7 @@
       <c r="S75" s="14"/>
       <c r="T75"/>
     </row>
-    <row r="76" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
         <v>73</v>
       </c>
@@ -3774,70 +3756,43 @@
         <v>0</v>
       </c>
       <c r="G76" s="14"/>
-      <c r="H76" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="K76" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="L76" s="1" t="s">
-        <v>343</v>
-      </c>
       <c r="M76" s="14"/>
-      <c r="N76" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="O76" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="P76" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q76" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="R76" s="1" t="s">
-        <v>344</v>
-      </c>
       <c r="S76" s="14"/>
       <c r="T76"/>
     </row>
     <row r="77" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
-        <v>196</v>
+        <v>342</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>289</v>
+        <v>343</v>
       </c>
       <c r="D77" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E77" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>344</v>
       </c>
       <c r="G77" s="14"/>
       <c r="M77" s="14"/>
       <c r="S77" s="14"/>
       <c r="T77"/>
     </row>
-    <row r="78" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>10</v>
+        <v>242</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="D78" s="1" t="b">
         <v>0</v>
@@ -3846,21 +3801,22 @@
         <v>1</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>228</v>
+        <v>347</v>
       </c>
       <c r="G78" s="14"/>
       <c r="M78" s="14"/>
       <c r="S78" s="14"/>
+      <c r="T78"/>
     </row>
     <row r="79" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>331</v>
+        <v>10</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="D79" s="1" t="b">
         <v>0</v>
@@ -3868,69 +3824,92 @@
       <c r="E79" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F79" s="1" t="s">
-        <v>336</v>
-      </c>
       <c r="G79" s="14"/>
+      <c r="H79" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>350</v>
+      </c>
       <c r="M79" s="14"/>
+      <c r="N79" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="P79" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q79" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="R79" s="1" t="s">
+        <v>351</v>
+      </c>
       <c r="S79" s="14"/>
-    </row>
-    <row r="80" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T79"/>
+    </row>
+    <row r="80" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>338</v>
+        <v>242</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="D80" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E80" s="1" t="b">
         <v>1</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="G80" s="14"/>
       <c r="M80" s="14"/>
       <c r="S80" s="14"/>
-    </row>
-    <row r="81" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D81" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E81" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>16</v>
+      <c r="T80"/>
+    </row>
+    <row r="81" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A81" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D81" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E81" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="G81" s="14"/>
       <c r="M81" s="14"/>
       <c r="S81" s="14"/>
       <c r="T81"/>
     </row>
-    <row r="82" spans="1:20" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>301</v>
+        <v>10</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="D82" s="1" t="b">
         <v>0</v>
@@ -3939,164 +3918,134 @@
         <v>1</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>16</v>
+        <v>228</v>
       </c>
       <c r="G82" s="14"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-      <c r="L82" s="1"/>
       <c r="M82" s="14"/>
-      <c r="N82" s="1"/>
-      <c r="O82" s="1"/>
-      <c r="P82" s="1"/>
-      <c r="Q82" s="1"/>
-      <c r="R82" s="1"/>
       <c r="S82" s="14"/>
-      <c r="T82"/>
     </row>
     <row r="83" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
-        <v>219</v>
+        <v>334</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>5</v>
+        <v>330</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>231</v>
+        <v>331</v>
       </c>
       <c r="D83" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>16</v>
+        <v>335</v>
       </c>
       <c r="G83" s="14"/>
       <c r="M83" s="14"/>
       <c r="S83" s="14"/>
-      <c r="T83"/>
-    </row>
-    <row r="84" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="84" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
-        <v>77</v>
+        <v>336</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>5</v>
+        <v>337</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>78</v>
+        <v>338</v>
       </c>
       <c r="D84" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E84" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>4</v>
+        <v>339</v>
       </c>
       <c r="G84" s="14"/>
       <c r="M84" s="14"/>
       <c r="S84" s="14"/>
-      <c r="T84"/>
-    </row>
-    <row r="85" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A85" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D85" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E85" s="1" t="b">
-        <v>0</v>
+    </row>
+    <row r="85" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D85" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E85" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="G85" s="14"/>
-      <c r="H85" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="K85" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="L85" s="1" t="s">
-        <v>343</v>
-      </c>
       <c r="M85" s="14"/>
-      <c r="N85" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="O85" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="P85" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q85" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="R85" s="1" t="s">
-        <v>344</v>
-      </c>
       <c r="S85" s="14"/>
       <c r="T85"/>
     </row>
-    <row r="86" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:20" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
-        <v>81</v>
+        <v>299</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>82</v>
+        <v>300</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>83</v>
+        <v>301</v>
       </c>
       <c r="D86" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="G86" s="14"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
       <c r="M86" s="14"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
       <c r="S86" s="14"/>
       <c r="T86"/>
     </row>
-    <row r="87" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D87" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E87" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>341</v>
+    <row r="87" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A87" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D87" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E87" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="G87" s="14"/>
       <c r="M87" s="14"/>
@@ -4105,13 +4054,13 @@
     </row>
     <row r="88" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>198</v>
+        <v>5</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="D88" s="1" t="b">
         <v>0</v>
@@ -4120,423 +4069,419 @@
         <v>0</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="G88" s="14"/>
       <c r="M88" s="14"/>
       <c r="S88" s="14"/>
       <c r="T88"/>
     </row>
-    <row r="89" spans="1:20" s="5" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A89" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="D89" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E89" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>213</v>
+    <row r="89" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D89" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E89" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="G89" s="14"/>
       <c r="M89" s="14"/>
       <c r="S89" s="14"/>
       <c r="T89"/>
     </row>
-    <row r="90" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D90" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="F90" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="G90" s="14"/>
-      <c r="H90" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="K90" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="L90" s="1" t="s">
-        <v>305</v>
-      </c>
       <c r="M90" s="14"/>
-      <c r="N90" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="O90" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="P90" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q90" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="R90" s="1" t="s">
-        <v>306</v>
-      </c>
       <c r="S90" s="14"/>
       <c r="T90"/>
     </row>
-    <row r="91" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D91" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E91" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>89</v>
+    <row r="91" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D91" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E91" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>340</v>
       </c>
       <c r="G91" s="14"/>
       <c r="M91" s="14"/>
       <c r="S91" s="14"/>
       <c r="T91"/>
     </row>
-    <row r="92" spans="1:20" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A92" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D92" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E92" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>93</v>
+    <row r="92" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A92" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D92" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E92" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G92" s="14"/>
       <c r="M92" s="14"/>
       <c r="S92" s="14"/>
       <c r="T92"/>
     </row>
-    <row r="93" spans="1:20" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:20" s="5" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A93" s="5" t="s">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>5</v>
+        <v>179</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="D93" s="5" t="b">
         <v>0</v>
       </c>
       <c r="E93" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="G93" s="14"/>
       <c r="M93" s="14"/>
       <c r="S93" s="14"/>
       <c r="T93"/>
     </row>
-    <row r="94" spans="1:20" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A94" s="18" t="s">
-        <v>322</v>
-      </c>
-      <c r="B94" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C94" s="18" t="s">
-        <v>323</v>
-      </c>
-      <c r="D94" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E94" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="F94" s="18" t="s">
-        <v>16</v>
+    <row r="94" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D94" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E94" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="G94" s="14"/>
-      <c r="H94" s="18"/>
-      <c r="I94" s="18"/>
-      <c r="J94" s="18"/>
-      <c r="K94" s="18"/>
-      <c r="L94" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="M94" s="19"/>
-      <c r="N94" s="18"/>
-      <c r="O94" s="18"/>
-      <c r="P94" s="18"/>
-      <c r="Q94" s="18"/>
-      <c r="R94" s="18" t="s">
-        <v>4</v>
+      <c r="H94" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="M94" s="14"/>
+      <c r="N94" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="O94" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="P94" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q94" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="R94" s="1" t="s">
+        <v>305</v>
       </c>
       <c r="S94" s="14"/>
       <c r="T94"/>
     </row>
-    <row r="95" spans="1:20" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E95" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G95" s="14"/>
       <c r="M95" s="14"/>
       <c r="S95" s="14"/>
       <c r="T95"/>
     </row>
-    <row r="96" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E96" s="1" t="b">
-        <v>1</v>
+    <row r="96" spans="1:20" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A96" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D96" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E96" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="G96" s="14"/>
-      <c r="H96" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K96" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L96" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="M96" s="14"/>
-      <c r="N96" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O96" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P96" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q96" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R96" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="S96" s="14"/>
       <c r="T96"/>
     </row>
-    <row r="97" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B97" s="1" t="s">
+    <row r="97" spans="1:21" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A97" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B97" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D97" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E97" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>4</v>
+      <c r="C97" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D97" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E97" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="G97" s="14"/>
       <c r="M97" s="14"/>
       <c r="S97" s="14"/>
       <c r="T97"/>
     </row>
-    <row r="98" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D98" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E98" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>269</v>
+    <row r="98" spans="1:21" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A98" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="B98" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="D98" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E98" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F98" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="G98" s="14"/>
-      <c r="M98" s="14"/>
+      <c r="H98" s="18"/>
+      <c r="I98" s="18"/>
+      <c r="J98" s="18"/>
+      <c r="K98" s="18"/>
+      <c r="L98" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="M98" s="19"/>
+      <c r="N98" s="18"/>
+      <c r="O98" s="18"/>
+      <c r="P98" s="18"/>
+      <c r="Q98" s="18"/>
+      <c r="R98" s="18" t="s">
+        <v>4</v>
+      </c>
       <c r="S98" s="14"/>
       <c r="T98"/>
     </row>
-    <row r="99" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:21" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
-        <v>202</v>
+        <v>96</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>203</v>
+        <v>82</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>204</v>
+        <v>98</v>
       </c>
       <c r="D99" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>252</v>
+        <v>97</v>
       </c>
       <c r="G99" s="14"/>
       <c r="M99" s="14"/>
       <c r="S99" s="14"/>
       <c r="T99"/>
     </row>
-    <row r="100" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>250</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
       <c r="D100" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F100" s="4" t="s">
-        <v>251</v>
-      </c>
       <c r="G100" s="14"/>
+      <c r="H100" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="M100" s="14"/>
+      <c r="N100" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O100" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P100" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q100" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R100" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="S100" s="14"/>
       <c r="T100"/>
     </row>
     <row r="101" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B101" t="s">
-        <v>10</v>
-      </c>
-      <c r="C101" t="s">
-        <v>278</v>
+        <v>152</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="D101" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E101" s="1" t="b">
         <v>1</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="G101" s="14"/>
       <c r="M101" s="14"/>
       <c r="S101" s="14"/>
       <c r="T101"/>
     </row>
-    <row r="102" spans="1:21" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A102" t="s">
-        <v>276</v>
-      </c>
-      <c r="B102" t="s">
+    <row r="102" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A102" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C102" t="s">
-        <v>277</v>
-      </c>
-      <c r="D102" t="b">
-        <v>1</v>
-      </c>
-      <c r="E102" t="b">
-        <v>1</v>
-      </c>
-      <c r="F102" t="s">
-        <v>341</v>
+      <c r="C102" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D102" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E102" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>269</v>
       </c>
       <c r="G102" s="14"/>
       <c r="M102" s="14"/>
       <c r="S102" s="14"/>
       <c r="T102"/>
-      <c r="U102"/>
-    </row>
-    <row r="103" spans="1:21" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="103" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A103" s="1" t="s">
-        <v>101</v>
+        <v>202</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>5</v>
+        <v>203</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>102</v>
+        <v>204</v>
       </c>
       <c r="D103" s="1" t="b">
         <v>0</v>
@@ -4545,7 +4490,7 @@
         <v>1</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>16</v>
+        <v>252</v>
       </c>
       <c r="G103" s="14"/>
       <c r="M103" s="14"/>
@@ -4554,13 +4499,13 @@
     </row>
     <row r="104" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>248</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>56</v>
+        <v>249</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>104</v>
+        <v>250</v>
       </c>
       <c r="D104" s="1" t="b">
         <v>0</v>
@@ -4569,76 +4514,80 @@
         <v>1</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>214</v>
+        <v>251</v>
       </c>
       <c r="G104" s="14"/>
       <c r="M104" s="14"/>
       <c r="S104" s="14"/>
       <c r="T104"/>
     </row>
-    <row r="105" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>106</v>
+        <v>222</v>
+      </c>
+      <c r="B105" t="s">
+        <v>10</v>
+      </c>
+      <c r="C105" t="s">
+        <v>277</v>
       </c>
       <c r="D105" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E105" s="1" t="b">
         <v>1</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G105" s="14"/>
       <c r="M105" s="14"/>
       <c r="S105" s="14"/>
       <c r="T105"/>
     </row>
-    <row r="106" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D106" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E106" s="1" t="b">
-        <v>1</v>
+    <row r="106" spans="1:21" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A106" t="s">
+        <v>275</v>
+      </c>
+      <c r="B106" t="s">
+        <v>10</v>
+      </c>
+      <c r="C106" t="s">
+        <v>276</v>
+      </c>
+      <c r="D106" t="b">
+        <v>1</v>
+      </c>
+      <c r="E106" t="b">
+        <v>1</v>
+      </c>
+      <c r="F106" t="s">
+        <v>340</v>
       </c>
       <c r="G106" s="14"/>
       <c r="M106" s="14"/>
       <c r="S106" s="14"/>
       <c r="T106"/>
-    </row>
-    <row r="107" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="U106"/>
+    </row>
+    <row r="107" spans="1:21" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>109</v>
+        <v>5</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D107" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E107" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="G107" s="14"/>
       <c r="M107" s="14"/>
@@ -4647,375 +4596,304 @@
     </row>
     <row r="108" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A108" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D108" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E108" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>214</v>
       </c>
       <c r="G108" s="14"/>
-      <c r="H108" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="J108" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="K108" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="L108" s="1" t="s">
-        <v>343</v>
-      </c>
       <c r="M108" s="14"/>
-      <c r="N108" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="O108" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="P108" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q108" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="R108" s="1" t="s">
-        <v>344</v>
-      </c>
       <c r="S108" s="14"/>
       <c r="T108"/>
     </row>
-    <row r="109" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D109" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E109" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F109" s="5" t="s">
-        <v>220</v>
+    <row r="109" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A109" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D109" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E109" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="G109" s="14"/>
       <c r="M109" s="14"/>
       <c r="S109" s="14"/>
       <c r="T109"/>
     </row>
-    <row r="110" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A110" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D110" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E110" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F110" s="5" t="s">
-        <v>220</v>
+    <row r="110" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A110" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D110" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E110" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="G110" s="14"/>
       <c r="M110" s="14"/>
       <c r="S110" s="14"/>
       <c r="T110"/>
     </row>
-    <row r="111" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A111" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D111" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E111" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F111" s="5" t="s">
-        <v>16</v>
+    <row r="111" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A111" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D111" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E111" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="G111" s="14"/>
       <c r="M111" s="14"/>
       <c r="S111" s="14"/>
       <c r="T111"/>
     </row>
-    <row r="112" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A112" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D112" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E112" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G112" s="14"/>
-      <c r="H112" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J112" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K112" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L112" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="M112" s="14"/>
-      <c r="N112" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O112" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P112" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q112" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R112" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="S112" s="14"/>
       <c r="T112"/>
     </row>
-    <row r="113" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A113" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D113" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E113" s="1" t="b">
-        <v>1</v>
+    <row r="113" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A113" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D113" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E113" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>220</v>
       </c>
       <c r="G113" s="14"/>
-      <c r="H113" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J113" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K113" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L113" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="M113" s="14"/>
-      <c r="N113" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O113" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P113" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q113" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R113" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="S113" s="14"/>
       <c r="T113"/>
     </row>
-    <row r="114" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A114" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D114" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E114" s="1" t="b">
-        <v>1</v>
+    <row r="114" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A114" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D114" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E114" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>220</v>
       </c>
       <c r="G114" s="14"/>
-      <c r="H114" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I114" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J114" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K114" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L114" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="M114" s="14"/>
-      <c r="N114" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O114" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P114" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q114" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R114" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="S114" s="14"/>
       <c r="T114"/>
     </row>
-    <row r="115" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A115" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B115" s="1" t="s">
+    <row r="115" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A115" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B115" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D115" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E115" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>4</v>
+      <c r="C115" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D115" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E115" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="G115" s="14"/>
       <c r="M115" s="14"/>
       <c r="S115" s="14"/>
       <c r="T115"/>
     </row>
-    <row r="116" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A116" t="s">
-        <v>279</v>
-      </c>
-      <c r="B116" t="s">
+    <row r="116" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A116" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C116" t="s">
-        <v>280</v>
-      </c>
-      <c r="D116" t="b">
-        <v>0</v>
-      </c>
-      <c r="E116" t="b">
-        <v>1</v>
-      </c>
-      <c r="F116" t="s">
-        <v>4</v>
+      <c r="C116" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D116" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E116" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="G116" s="14"/>
-      <c r="H116"/>
-      <c r="I116"/>
-      <c r="J116"/>
-      <c r="K116"/>
-      <c r="L116"/>
-      <c r="M116" s="17"/>
-      <c r="N116"/>
-      <c r="O116"/>
-      <c r="P116"/>
-      <c r="Q116"/>
-      <c r="R116"/>
-      <c r="S116" s="17"/>
+      <c r="H116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M116" s="14"/>
+      <c r="N116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S116" s="14"/>
       <c r="T116"/>
-      <c r="U116"/>
-    </row>
-    <row r="117" spans="1:21" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A117" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D117" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E117" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F117" s="5" t="s">
-        <v>16</v>
+    </row>
+    <row r="117" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A117" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D117" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E117" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="G117" s="14"/>
+      <c r="H117" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="M117" s="14"/>
+      <c r="N117" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O117" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P117" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q117" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R117" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="S117" s="14"/>
       <c r="T117"/>
     </row>
     <row r="118" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A118" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D118" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E118" s="1" t="b">
         <v>1</v>
@@ -5055,140 +4933,98 @@
       <c r="S118" s="14"/>
       <c r="T118"/>
     </row>
-    <row r="119" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A119" s="1" t="s">
-        <v>240</v>
+        <v>154</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="D119" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E119" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="F119" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="G119" s="14"/>
-      <c r="H119" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I119" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J119" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K119" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L119" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="M119" s="14"/>
-      <c r="N119" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O119" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P119" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q119" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R119" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="S119" s="14"/>
       <c r="T119"/>
     </row>
-    <row r="120" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A120" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D120" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E120" s="1" t="b">
-        <v>1</v>
+    <row r="120" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A120" t="s">
+        <v>278</v>
+      </c>
+      <c r="B120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120" t="s">
+        <v>279</v>
+      </c>
+      <c r="D120" t="b">
+        <v>0</v>
+      </c>
+      <c r="E120" t="b">
+        <v>1</v>
+      </c>
+      <c r="F120" t="s">
+        <v>4</v>
       </c>
       <c r="G120" s="14"/>
-      <c r="H120" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="I120" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="J120" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="K120" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="L120" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="M120" s="14"/>
-      <c r="N120" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="O120" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="P120" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q120" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="R120" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="S120" s="14"/>
-    </row>
-    <row r="121" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A121" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D121" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E121" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>341</v>
+      <c r="H120"/>
+      <c r="I120"/>
+      <c r="J120"/>
+      <c r="K120"/>
+      <c r="L120"/>
+      <c r="M120" s="17"/>
+      <c r="N120"/>
+      <c r="O120"/>
+      <c r="P120"/>
+      <c r="Q120"/>
+      <c r="R120"/>
+      <c r="S120" s="17"/>
+      <c r="T120"/>
+      <c r="U120"/>
+    </row>
+    <row r="121" spans="1:21" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A121" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D121" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E121" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="G121" s="14"/>
       <c r="M121" s="14"/>
       <c r="S121" s="14"/>
       <c r="T121"/>
     </row>
-    <row r="122" spans="1:21" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A122" s="1" t="s">
-        <v>257</v>
+        <v>128</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>258</v>
+        <v>129</v>
       </c>
       <c r="D122" s="1" t="b">
         <v>1</v>
@@ -5196,37 +5032,183 @@
       <c r="E122" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F122" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="G122" s="14"/>
+      <c r="H122" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K122" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L122" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="M122" s="14"/>
+      <c r="N122" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O122" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P122" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q122" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R122" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="S122" s="14"/>
       <c r="T122"/>
     </row>
-    <row r="123" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A123" s="1" t="s">
-        <v>133</v>
+        <v>240</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D123" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E123" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>228</v>
+        <v>1</v>
       </c>
       <c r="G123" s="14"/>
+      <c r="H123" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L123" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="M123" s="14"/>
+      <c r="N123" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O123" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P123" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q123" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R123" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="S123" s="14"/>
       <c r="T123"/>
+    </row>
+    <row r="124" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A124" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D124" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E124" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G124" s="14"/>
+      <c r="M124" s="14"/>
+      <c r="S124" s="14"/>
+    </row>
+    <row r="125" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A125" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D125" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E125" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="G125" s="14"/>
+      <c r="M125" s="14"/>
+      <c r="S125" s="14"/>
+      <c r="T125"/>
+    </row>
+    <row r="126" spans="1:21" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A126" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D126" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E126" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G126" s="14"/>
+      <c r="M126" s="14"/>
+      <c r="S126" s="14"/>
+      <c r="T126"/>
+    </row>
+    <row r="127" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A127" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D127" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E127" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G127" s="14"/>
+      <c r="M127" s="14"/>
+      <c r="S127" s="14"/>
+      <c r="T127"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/src/main/resources/input/Waterschapshuis/props/Waterschapshuis.xlsx
+++ b/src/main/resources/input/Waterschapshuis/props/Waterschapshuis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\gitprojects\Imvertor-Maven\src\main\resources\input\Waterschapshuis\props\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302A6FAA-C56D-4ADB-866C-8EC337F2DD0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB8D2C3-CF1E-41FE-825A-373F375A6A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="20057" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -976,9 +976,6 @@
     <t>Name of the visuals file</t>
   </si>
   <si>
-    <t>respec</t>
-  </si>
-  <si>
     <t>fullrespec</t>
   </si>
   <si>
@@ -1088,6 +1085,9 @@
   </si>
   <si>
     <t>Vetsion of the extension. When this is a MIM model, specify the MIM extension version</t>
+  </si>
+  <si>
+    <t>documentor</t>
   </si>
 </sst>
 </file>
@@ -1563,7 +1563,7 @@
   <dimension ref="A1:U127"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="F38" sqref="F38"/>
@@ -1663,7 +1663,7 @@
         <v>309</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M2" s="13"/>
       <c r="N2" s="2" t="s">
@@ -1679,7 +1679,7 @@
         <v>313</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="S2" s="13"/>
       <c r="T2"/>
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G18" s="14"/>
       <c r="M18" s="14"/>
@@ -2127,7 +2127,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G21" s="14"/>
       <c r="M21" s="14"/>
@@ -2334,13 +2334,13 @@
     </row>
     <row r="27" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D27" s="1" t="b">
         <v>0</v>
@@ -2549,7 +2549,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G32" s="14"/>
       <c r="M32" s="14"/>
@@ -2558,13 +2558,13 @@
     </row>
     <row r="33" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D33" s="1" t="b">
         <v>0</v>
@@ -2656,7 +2656,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G36" s="14"/>
       <c r="M36" s="14"/>
@@ -2680,7 +2680,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="G37" s="14"/>
       <c r="M37" s="14"/>
@@ -3289,13 +3289,13 @@
     </row>
     <row r="59" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D59" s="1" t="b">
         <v>0</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G73" s="14"/>
       <c r="M73" s="14"/>
@@ -3762,22 +3762,22 @@
     </row>
     <row r="77" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C77" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D77" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E77" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="D77" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E77" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="G77" s="14"/>
       <c r="M77" s="14"/>
@@ -3786,22 +3786,22 @@
     </row>
     <row r="78" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>242</v>
       </c>
       <c r="C78" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D78" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E78" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="D78" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E78" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>347</v>
       </c>
       <c r="G78" s="14"/>
       <c r="M78" s="14"/>
@@ -3810,13 +3810,13 @@
     </row>
     <row r="79" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D79" s="1" t="b">
         <v>0</v>
@@ -3826,48 +3826,48 @@
       </c>
       <c r="G79" s="14"/>
       <c r="H79" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M79" s="14"/>
       <c r="N79" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="R79" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="S79" s="14"/>
       <c r="T79"/>
     </row>
     <row r="80" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>242</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D80" s="1" t="b">
         <v>0</v>
@@ -3903,13 +3903,13 @@
     </row>
     <row r="82" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D82" s="1" t="b">
         <v>0</v>
@@ -3926,22 +3926,22 @@
     </row>
     <row r="83" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D83" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E83" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F83" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D83" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E83" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>335</v>
       </c>
       <c r="G83" s="14"/>
       <c r="M83" s="14"/>
@@ -3949,22 +3949,22 @@
     </row>
     <row r="84" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="D84" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E84" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F84" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="D84" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E84" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>339</v>
       </c>
       <c r="G84" s="14"/>
       <c r="M84" s="14"/>
@@ -4138,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G91" s="14"/>
       <c r="M91" s="14"/>
@@ -4318,13 +4318,13 @@
     </row>
     <row r="98" spans="1:21" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A98" s="18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B98" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D98" s="18" t="b">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G106" s="14"/>
       <c r="M106" s="14"/>
@@ -5155,7 +5155,7 @@
         <v>0</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G125" s="14"/>
       <c r="M125" s="14"/>

--- a/src/main/resources/input/Waterschapshuis/props/Waterschapshuis.xlsx
+++ b/src/main/resources/input/Waterschapshuis/props/Waterschapshuis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\gitprojects\Imvertor-Maven\src\main\resources\input\Waterschapshuis\props\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB8D2C3-CF1E-41FE-825A-373F375A6A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7CDC9B-4159-4EB1-AA13-A622ABA2FAD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="20057" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="354">
   <si>
     <t>Name</t>
   </si>
@@ -475,9 +475,6 @@
     <t>Language of the metamodel and model. Specify metamodel:model, like "en:nl", or single code for both.</t>
   </si>
   <si>
-    <t>[project-name]-[application-name]-[phase]-[release].office</t>
-  </si>
-  <si>
     <t>refreshxmi</t>
   </si>
   <si>
@@ -1088,6 +1085,9 @@
   </si>
   <si>
     <t>documentor</t>
+  </si>
+  <si>
+    <t>index</t>
   </si>
 </sst>
 </file>
@@ -1562,11 +1562,11 @@
   </sheetPr>
   <dimension ref="A1:U127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F38" sqref="F38"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1604,45 +1604,45 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>216</v>
       </c>
       <c r="G1" s="12"/>
       <c r="H1" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M1" s="12"/>
       <c r="N1" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S1" s="12"/>
       <c r="T1"/>
@@ -1651,48 +1651,48 @@
       <c r="F2" s="2"/>
       <c r="G2" s="13"/>
       <c r="H2" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>309</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M2" s="13"/>
       <c r="N2" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>313</v>
-      </c>
       <c r="R2" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="S2" s="13"/>
       <c r="T2"/>
     </row>
     <row r="3" spans="1:20" s="1" customFormat="1" ht="44.15" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="D3" s="1" t="b">
         <v>0</v>
@@ -1755,13 +1755,13 @@
     </row>
     <row r="6" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>160</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>161</v>
       </c>
       <c r="D6" s="5" t="b">
         <v>0</v>
@@ -1807,13 +1807,13 @@
     </row>
     <row r="9" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>162</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>163</v>
       </c>
       <c r="D9" s="5" t="b">
         <v>0</v>
@@ -1855,13 +1855,13 @@
     </row>
     <row r="11" spans="1:20" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>164</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>165</v>
       </c>
       <c r="D11" s="5" t="b">
         <v>0</v>
@@ -1900,22 +1900,22 @@
     </row>
     <row r="13" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="D13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="G13" s="14"/>
       <c r="M13" s="14"/>
@@ -1970,10 +1970,10 @@
         <v>19</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>19</v>
@@ -1986,10 +1986,10 @@
         <v>19</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>19</v>
@@ -2023,22 +2023,22 @@
     </row>
     <row r="17" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="G17" s="14"/>
       <c r="M17" s="14"/>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="18" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G18" s="14"/>
       <c r="M18" s="14"/>
@@ -2067,13 +2067,13 @@
     </row>
     <row r="19" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D19" s="1" t="b">
         <v>0</v>
@@ -2103,7 +2103,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G20" s="14"/>
       <c r="M20" s="14"/>
@@ -2127,7 +2127,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G21" s="14"/>
       <c r="M21" s="14"/>
@@ -2150,37 +2150,16 @@
       <c r="E22" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="F22" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="G22" s="14"/>
       <c r="H22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="M22" s="14"/>
       <c r="N22" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="S22" s="14"/>
       <c r="T22"/>
@@ -2211,13 +2190,13 @@
     </row>
     <row r="24" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="D24" s="1" t="b">
         <v>0</v>
@@ -2297,100 +2276,58 @@
       <c r="E26" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="F26" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="G26" s="14"/>
       <c r="H26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="M26" s="14"/>
       <c r="N26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R26" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="S26" s="14"/>
       <c r="T26"/>
     </row>
     <row r="27" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>325</v>
-      </c>
       <c r="D27" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E27" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="G27" s="14"/>
       <c r="H27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="M27" s="14"/>
       <c r="N27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R27" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="S27" s="14"/>
     </row>
     <row r="28" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="D28" s="1" t="b">
         <v>0</v>
@@ -2473,50 +2410,23 @@
       <c r="E30" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="F30" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="G30" s="14"/>
-      <c r="H30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="M30" s="14"/>
-      <c r="N30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="S30" s="14"/>
       <c r="T30"/>
     </row>
     <row r="31" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="D31" s="1" t="b">
         <v>0</v>
@@ -2534,13 +2444,13 @@
     </row>
     <row r="32" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D32" s="1" t="b">
         <v>0</v>
@@ -2549,7 +2459,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G32" s="14"/>
       <c r="M32" s="14"/>
@@ -2558,14 +2468,14 @@
     </row>
     <row r="33" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>328</v>
-      </c>
       <c r="D33" s="1" t="b">
         <v>0</v>
       </c>
@@ -2576,22 +2486,7 @@
         <v>16</v>
       </c>
       <c r="G33" s="14"/>
-      <c r="I33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="M33" s="14"/>
-      <c r="R33" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="S33" s="14"/>
     </row>
     <row r="34" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
@@ -2620,13 +2515,13 @@
     </row>
     <row r="35" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="D35" s="1" t="b">
         <v>0</v>
@@ -2641,14 +2536,14 @@
     </row>
     <row r="36" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="D36" s="1" t="b">
         <v>0</v>
       </c>
@@ -2656,7 +2551,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G36" s="14"/>
       <c r="M36" s="14"/>
@@ -2665,14 +2560,14 @@
     </row>
     <row r="37" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>272</v>
-      </c>
       <c r="D37" s="1" t="b">
         <v>0</v>
       </c>
@@ -2680,7 +2575,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G37" s="14"/>
       <c r="M37" s="14"/>
@@ -2703,51 +2598,24 @@
       <c r="E38" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="F38" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="G38" s="14"/>
-      <c r="H38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="M38" s="14"/>
-      <c r="N38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q38" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R38" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="S38" s="14"/>
       <c r="T38"/>
     </row>
     <row r="39" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A39" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="B39" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>274</v>
-      </c>
       <c r="D39" s="18" t="b">
         <v>0</v>
       </c>
@@ -2758,18 +2626,6 @@
         <v>16</v>
       </c>
       <c r="G39" s="19"/>
-      <c r="I39" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="J39" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="K39" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="L39" s="18" t="s">
-        <v>4</v>
-      </c>
       <c r="M39" s="14"/>
       <c r="S39" s="14"/>
       <c r="T39"/>
@@ -2790,38 +2646,11 @@
       <c r="E40" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="F40" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="G40" s="14"/>
-      <c r="H40" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="M40" s="14"/>
-      <c r="N40" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O40" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q40" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R40" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="S40" s="14"/>
       <c r="T40"/>
     </row>
@@ -2865,50 +2694,23 @@
       <c r="E42" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="F42" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="G42" s="14"/>
-      <c r="H42" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="M42" s="14"/>
-      <c r="N42" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P42" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q42" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R42" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="S42" s="14"/>
       <c r="T42"/>
     </row>
     <row r="43" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D43" s="1" t="b">
         <v>0</v>
@@ -2918,48 +2720,48 @@
       </c>
       <c r="G43" s="14"/>
       <c r="H43" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M43" s="14"/>
       <c r="N43" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="S43" s="14"/>
       <c r="T43"/>
     </row>
     <row r="44" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="D44" s="1" t="b">
         <v>0</v>
@@ -3016,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G46" s="14"/>
       <c r="M46" s="14"/>
@@ -3059,13 +2861,13 @@
     </row>
     <row r="49" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="D49" s="1" t="b">
         <v>0</v>
@@ -3119,7 +2921,7 @@
         <v>1</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G51" s="15"/>
       <c r="M51" s="14"/>
@@ -3128,7 +2930,7 @@
     </row>
     <row r="52" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -3145,13 +2947,13 @@
     </row>
     <row r="53" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A53" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>181</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>182</v>
       </c>
       <c r="D53" s="5" t="b">
         <v>0</v>
@@ -3169,14 +2971,14 @@
     </row>
     <row r="54" spans="1:20" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A54" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="C54" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>185</v>
-      </c>
       <c r="D54" s="5" t="b">
         <v>0</v>
       </c>
@@ -3184,7 +2986,7 @@
         <v>1</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G54" s="14"/>
       <c r="M54" s="14"/>
@@ -3265,13 +3067,13 @@
     </row>
     <row r="58" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="D58" s="1" t="b">
         <v>0</v>
@@ -3289,14 +3091,14 @@
     </row>
     <row r="59" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>317</v>
-      </c>
       <c r="D59" s="1" t="b">
         <v>0</v>
       </c>
@@ -3304,45 +3106,21 @@
         <v>1</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G59" s="14"/>
-      <c r="I59" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="M59" s="14"/>
-      <c r="O59" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P59" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q59" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R59" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="S59" s="14"/>
     </row>
     <row r="60" spans="1:20" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A60" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B60" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D60" s="11" t="b">
         <v>0</v>
@@ -3367,22 +3145,22 @@
     </row>
     <row r="61" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A61" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="C61" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="D61" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E61" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F61" s="5" t="s">
         <v>284</v>
-      </c>
-      <c r="D61" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E61" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>285</v>
       </c>
       <c r="G61" s="14"/>
       <c r="M61" s="14"/>
@@ -3391,13 +3169,13 @@
     </row>
     <row r="62" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A62" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D62" s="5" t="b">
         <v>0</v>
@@ -3423,13 +3201,13 @@
     </row>
     <row r="63" spans="1:20" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A63" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C63" s="5" t="s">
         <v>188</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>189</v>
       </c>
       <c r="D63" s="5" t="b">
         <v>0</v>
@@ -3444,13 +3222,13 @@
     </row>
     <row r="64" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B64" t="s">
         <v>82</v>
       </c>
       <c r="C64" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D64" t="b">
         <v>0</v>
@@ -3459,7 +3237,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G64" s="14"/>
       <c r="M64" s="14"/>
@@ -3468,22 +3246,22 @@
     </row>
     <row r="65" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B65" t="s">
         <v>82</v>
       </c>
       <c r="C65" t="s">
+        <v>296</v>
+      </c>
+      <c r="D65" t="b">
+        <v>0</v>
+      </c>
+      <c r="E65" t="b">
+        <v>1</v>
+      </c>
+      <c r="F65" t="s">
         <v>297</v>
-      </c>
-      <c r="D65" t="b">
-        <v>0</v>
-      </c>
-      <c r="E65" t="b">
-        <v>1</v>
-      </c>
-      <c r="F65" t="s">
-        <v>298</v>
       </c>
       <c r="G65" s="14"/>
       <c r="M65" s="14"/>
@@ -3492,14 +3270,14 @@
     </row>
     <row r="66" spans="1:20" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A66" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B66" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="C66" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="C66" s="10" t="s">
-        <v>243</v>
-      </c>
       <c r="D66" s="11" t="b">
         <v>0</v>
       </c>
@@ -3507,7 +3285,7 @@
         <v>1</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G66" s="16"/>
       <c r="H66" s="11"/>
@@ -3525,13 +3303,13 @@
     </row>
     <row r="67" spans="1:20" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A67" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B67" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="C67" s="5" t="s">
         <v>191</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>192</v>
       </c>
       <c r="D67" s="5" t="b">
         <v>0</v>
@@ -3564,7 +3342,7 @@
         <v>1</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G68" s="14"/>
       <c r="M68" s="14"/>
@@ -3573,13 +3351,13 @@
     </row>
     <row r="69" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
+        <v>288</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" s="10" t="s">
         <v>289</v>
-      </c>
-      <c r="B69" t="s">
-        <v>5</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>290</v>
       </c>
       <c r="D69" s="1" t="b">
         <v>0</v>
@@ -3612,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G70" s="14"/>
       <c r="M70" s="14"/>
@@ -3621,13 +3399,13 @@
     </row>
     <row r="71" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B71" t="s">
         <v>82</v>
       </c>
       <c r="C71" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D71" t="b">
         <v>0</v>
@@ -3636,7 +3414,7 @@
         <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G71" s="14"/>
       <c r="M71" s="14"/>
@@ -3660,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G72" s="14"/>
       <c r="M72" s="14"/>
@@ -3684,7 +3462,7 @@
         <v>0</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G73" s="14"/>
       <c r="M73" s="14"/>
@@ -3693,14 +3471,14 @@
     </row>
     <row r="74" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="D74" s="1" t="b">
         <v>0</v>
       </c>
@@ -3708,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G74" s="14"/>
       <c r="M74" s="14"/>
@@ -3717,22 +3495,22 @@
     </row>
     <row r="75" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D75" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E75" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D75" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E75" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="G75" s="14"/>
       <c r="M75" s="14"/>
@@ -3762,22 +3540,22 @@
     </row>
     <row r="77" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C77" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D77" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E77" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="D77" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E77" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>343</v>
       </c>
       <c r="G77" s="14"/>
       <c r="M77" s="14"/>
@@ -3786,22 +3564,22 @@
     </row>
     <row r="78" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C78" s="1" t="s">
+      <c r="D78" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E78" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="D78" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E78" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="G78" s="14"/>
       <c r="M78" s="14"/>
@@ -3810,13 +3588,13 @@
     </row>
     <row r="79" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D79" s="1" t="b">
         <v>0</v>
@@ -3826,48 +3604,48 @@
       </c>
       <c r="G79" s="14"/>
       <c r="H79" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M79" s="14"/>
       <c r="N79" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="R79" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="S79" s="14"/>
       <c r="T79"/>
     </row>
     <row r="80" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>352</v>
       </c>
       <c r="D80" s="1" t="b">
         <v>0</v>
@@ -3882,13 +3660,13 @@
     </row>
     <row r="81" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D81" s="1" t="b">
         <v>0</v>
@@ -3903,13 +3681,13 @@
     </row>
     <row r="82" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D82" s="1" t="b">
         <v>0</v>
@@ -3918,7 +3696,7 @@
         <v>1</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G82" s="14"/>
       <c r="M82" s="14"/>
@@ -3926,22 +3704,22 @@
     </row>
     <row r="83" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D83" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E83" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F83" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D83" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E83" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>334</v>
       </c>
       <c r="G83" s="14"/>
       <c r="M83" s="14"/>
@@ -3949,22 +3727,22 @@
     </row>
     <row r="84" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="D84" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E84" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F84" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="D84" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E84" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>338</v>
       </c>
       <c r="G84" s="14"/>
       <c r="M84" s="14"/>
@@ -3996,13 +3774,13 @@
     </row>
     <row r="86" spans="1:20" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>301</v>
       </c>
       <c r="D86" s="1" t="b">
         <v>0</v>
@@ -4030,13 +3808,13 @@
     </row>
     <row r="87" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D87" s="1" t="b">
         <v>1</v>
@@ -4114,7 +3892,7 @@
         <v>0</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>149</v>
+        <v>353</v>
       </c>
       <c r="G90" s="14"/>
       <c r="M90" s="14"/>
@@ -4138,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G91" s="14"/>
       <c r="M91" s="14"/>
@@ -4147,13 +3925,13 @@
     </row>
     <row r="92" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="D92" s="1" t="b">
         <v>0</v>
@@ -4171,14 +3949,14 @@
     </row>
     <row r="93" spans="1:20" s="5" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A93" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C93" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="B93" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>201</v>
-      </c>
       <c r="D93" s="5" t="b">
         <v>0</v>
       </c>
@@ -4186,7 +3964,7 @@
         <v>1</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G93" s="14"/>
       <c r="M93" s="14"/>
@@ -4211,35 +3989,35 @@
       </c>
       <c r="G94" s="14"/>
       <c r="H94" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M94" s="14"/>
       <c r="N94" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P94" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Q94" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="R94" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="S94" s="14"/>
       <c r="T94"/>
@@ -4294,13 +4072,13 @@
     </row>
     <row r="97" spans="1:21" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A97" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>151</v>
       </c>
       <c r="D97" s="5" t="b">
         <v>0</v>
@@ -4318,13 +4096,13 @@
     </row>
     <row r="98" spans="1:21" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A98" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="B98" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" s="18" t="s">
         <v>320</v>
-      </c>
-      <c r="B98" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C98" s="18" t="s">
-        <v>321</v>
       </c>
       <c r="D98" s="18" t="b">
         <v>0</v>
@@ -4380,7 +4158,7 @@
     </row>
     <row r="100" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
@@ -4427,13 +4205,13 @@
     </row>
     <row r="101" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="D101" s="1" t="b">
         <v>0</v>
@@ -4466,7 +4244,7 @@
         <v>0</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G102" s="14"/>
       <c r="M102" s="14"/>
@@ -4475,14 +4253,14 @@
     </row>
     <row r="103" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A103" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="D103" s="1" t="b">
         <v>0</v>
       </c>
@@ -4490,7 +4268,7 @@
         <v>1</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G103" s="14"/>
       <c r="M103" s="14"/>
@@ -4499,22 +4277,22 @@
     </row>
     <row r="104" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A104" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="C104" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="D104" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E104" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F104" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="D104" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F104" s="4" t="s">
-        <v>251</v>
       </c>
       <c r="G104" s="14"/>
       <c r="M104" s="14"/>
@@ -4523,13 +4301,13 @@
     </row>
     <row r="105" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B105" t="s">
         <v>10</v>
       </c>
       <c r="C105" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D105" s="1" t="b">
         <v>1</v>
@@ -4547,13 +4325,13 @@
     </row>
     <row r="106" spans="1:21" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B106" t="s">
         <v>10</v>
       </c>
       <c r="C106" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D106" t="b">
         <v>1</v>
@@ -4562,7 +4340,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G106" s="14"/>
       <c r="M106" s="14"/>
@@ -4611,7 +4389,7 @@
         <v>1</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G108" s="14"/>
       <c r="M108" s="14"/>
@@ -4644,13 +4422,13 @@
     </row>
     <row r="110" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A110" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="D110" s="1" t="b">
         <v>0</v>
@@ -4725,7 +4503,7 @@
         <v>0</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G113" s="14"/>
       <c r="M113" s="14"/>
@@ -4749,7 +4527,7 @@
         <v>0</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G114" s="14"/>
       <c r="M114" s="14"/>
@@ -4796,38 +4574,11 @@
       <c r="E116" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="F116" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="G116" s="14"/>
-      <c r="H116" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I116" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J116" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K116" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L116" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="M116" s="14"/>
-      <c r="N116" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O116" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P116" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q116" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R116" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="S116" s="14"/>
       <c r="T116"/>
     </row>
@@ -4847,38 +4598,11 @@
       <c r="E117" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="F117" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="G117" s="14"/>
-      <c r="H117" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I117" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J117" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K117" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L117" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="M117" s="14"/>
-      <c r="N117" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O117" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P117" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q117" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R117" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="S117" s="14"/>
       <c r="T117"/>
     </row>
@@ -4898,50 +4622,23 @@
       <c r="E118" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="F118" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="G118" s="14"/>
-      <c r="H118" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I118" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J118" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K118" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L118" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="M118" s="14"/>
-      <c r="N118" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O118" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P118" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q118" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R118" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="S118" s="14"/>
       <c r="T118"/>
     </row>
     <row r="119" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A119" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="D119" s="1" t="b">
         <v>0</v>
@@ -4959,13 +4656,13 @@
     </row>
     <row r="120" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
+        <v>277</v>
+      </c>
+      <c r="B120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120" t="s">
         <v>278</v>
-      </c>
-      <c r="B120" t="s">
-        <v>5</v>
-      </c>
-      <c r="C120" t="s">
-        <v>279</v>
       </c>
       <c r="D120" t="b">
         <v>0</v>
@@ -5032,44 +4729,23 @@
       <c r="E122" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="F122" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="G122" s="14"/>
       <c r="H122" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I122" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J122" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K122" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L122" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="M122" s="14"/>
       <c r="N122" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O122" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P122" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q122" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R122" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="S122" s="14"/>
       <c r="T122"/>
     </row>
     <row r="123" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A123" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>5</v>
@@ -5083,50 +4759,29 @@
       <c r="E123" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="F123" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="G123" s="14"/>
       <c r="H123" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I123" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J123" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K123" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L123" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="M123" s="14"/>
       <c r="N123" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O123" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P123" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q123" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R123" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="S123" s="14"/>
       <c r="T123"/>
     </row>
     <row r="124" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A124" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D124" s="1" t="b">
         <v>1</v>
@@ -5155,7 +4810,7 @@
         <v>0</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G125" s="14"/>
       <c r="M125" s="14"/>
@@ -5164,22 +4819,22 @@
     </row>
     <row r="126" spans="1:21" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A126" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C126" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D126" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E126" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F126" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="D126" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E126" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="G126" s="14"/>
       <c r="M126" s="14"/>
@@ -5203,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G127" s="14"/>
       <c r="M127" s="14"/>
@@ -5246,48 +4901,48 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="6" spans="1:2" ht="19.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="19.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="19.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>

--- a/src/main/resources/input/Waterschapshuis/props/Waterschapshuis.xlsx
+++ b/src/main/resources/input/Waterschapshuis/props/Waterschapshuis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\gitprojects\Imvertor-Maven\src\main\resources\input\Waterschapshuis\props\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7CDC9B-4159-4EB1-AA13-A622ABA2FAD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272492A9-A0E2-42CE-9127-45CF7AD0167F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="20057" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38290" yWindow="2280" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Waterschapshuis" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="351">
   <si>
     <t>Name</t>
   </si>
@@ -170,15 +170,6 @@
   </si>
   <si>
     <t>Yes if the released application should be zipped for distribution</t>
-  </si>
-  <si>
-    <t>dashboardpath</t>
-  </si>
-  <si>
-    <t>http-path</t>
-  </si>
-  <si>
-    <t>The path to the Imvertor dashboard application.</t>
   </si>
   <si>
     <t>debug</t>
@@ -1560,13 +1551,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U127"/>
+  <dimension ref="A1:U126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="E46" sqref="A46:XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1604,45 +1595,45 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G1" s="12"/>
       <c r="H1" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M1" s="12"/>
       <c r="N1" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="S1" s="12"/>
       <c r="T1"/>
@@ -1651,48 +1642,48 @@
       <c r="F2" s="2"/>
       <c r="G2" s="13"/>
       <c r="H2" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>308</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="M2" s="13"/>
       <c r="N2" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>312</v>
-      </c>
       <c r="R2" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="S2" s="13"/>
       <c r="T2"/>
     </row>
     <row r="3" spans="1:20" s="1" customFormat="1" ht="44.15" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D3" s="1" t="b">
         <v>0</v>
@@ -1755,13 +1746,13 @@
     </row>
     <row r="6" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D6" s="5" t="b">
         <v>0</v>
@@ -1807,13 +1798,13 @@
     </row>
     <row r="9" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D9" s="5" t="b">
         <v>0</v>
@@ -1855,13 +1846,13 @@
     </row>
     <row r="11" spans="1:20" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D11" s="5" t="b">
         <v>0</v>
@@ -1876,13 +1867,13 @@
     </row>
     <row r="12" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D12" s="1" t="b">
         <v>0</v>
@@ -1900,22 +1891,22 @@
     </row>
     <row r="13" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="G13" s="14"/>
       <c r="M13" s="14"/>
@@ -1970,10 +1961,10 @@
         <v>19</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>19</v>
@@ -1986,10 +1977,10 @@
         <v>19</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>19</v>
@@ -2023,13 +2014,13 @@
     </row>
     <row r="17" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D17" s="1" t="b">
         <v>1</v>
@@ -2038,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G17" s="14"/>
       <c r="M17" s="14"/>
@@ -2047,7 +2038,7 @@
     </row>
     <row r="18" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -2058,7 +2049,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G18" s="14"/>
       <c r="M18" s="14"/>
@@ -2067,13 +2058,13 @@
     </row>
     <row r="19" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D19" s="1" t="b">
         <v>0</v>
@@ -2088,13 +2079,13 @@
     </row>
     <row r="20" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D20" s="1" t="b">
         <v>0</v>
@@ -2103,7 +2094,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G20" s="14"/>
       <c r="M20" s="14"/>
@@ -2112,13 +2103,13 @@
     </row>
     <row r="21" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D21" s="1" t="b">
         <v>0</v>
@@ -2127,7 +2118,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G21" s="14"/>
       <c r="M21" s="14"/>
@@ -2136,13 +2127,13 @@
     </row>
     <row r="22" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D22" s="1" t="b">
         <v>0</v>
@@ -2190,13 +2181,13 @@
     </row>
     <row r="24" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D24" s="1" t="b">
         <v>0</v>
@@ -2292,13 +2283,13 @@
     </row>
     <row r="27" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D27" s="1" t="b">
         <v>0</v>
@@ -2321,13 +2312,13 @@
     </row>
     <row r="28" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D28" s="1" t="b">
         <v>0</v>
@@ -2396,13 +2387,13 @@
     </row>
     <row r="30" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D30" s="1" t="b">
         <v>0</v>
@@ -2420,13 +2411,13 @@
     </row>
     <row r="31" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D31" s="1" t="b">
         <v>0</v>
@@ -2444,13 +2435,13 @@
     </row>
     <row r="32" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D32" s="1" t="b">
         <v>0</v>
@@ -2459,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G32" s="14"/>
       <c r="M32" s="14"/>
@@ -2468,13 +2459,13 @@
     </row>
     <row r="33" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D33" s="1" t="b">
         <v>0</v>
@@ -2515,13 +2506,13 @@
     </row>
     <row r="35" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D35" s="1" t="b">
         <v>0</v>
@@ -2536,13 +2527,13 @@
     </row>
     <row r="36" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D36" s="1" t="b">
         <v>0</v>
@@ -2551,7 +2542,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G36" s="14"/>
       <c r="M36" s="14"/>
@@ -2560,13 +2551,13 @@
     </row>
     <row r="37" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D37" s="1" t="b">
         <v>0</v>
@@ -2575,7 +2566,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G37" s="14"/>
       <c r="M37" s="14"/>
@@ -2608,13 +2599,13 @@
     </row>
     <row r="39" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A39" s="18" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B39" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D39" s="18" t="b">
         <v>0</v>
@@ -2704,13 +2695,13 @@
     </row>
     <row r="43" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D43" s="1" t="b">
         <v>0</v>
@@ -2720,48 +2711,48 @@
       </c>
       <c r="G43" s="14"/>
       <c r="H43" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="M43" s="14"/>
       <c r="N43" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="Q43" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="S43" s="14"/>
       <c r="T43"/>
     </row>
     <row r="44" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D44" s="1" t="b">
         <v>0</v>
@@ -2801,24 +2792,24 @@
       <c r="S45" s="14"/>
       <c r="T45"/>
     </row>
-    <row r="46" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="5" t="s">
+    <row r="46" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D46" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E46" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>219</v>
+      <c r="D46" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="G46" s="14"/>
       <c r="M46" s="14"/>
@@ -2826,66 +2817,66 @@
       <c r="T46"/>
     </row>
     <row r="47" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B47" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D47" s="21" t="b">
-        <v>0</v>
-      </c>
-      <c r="E47" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="A47" s="21"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
       <c r="G47" s="14"/>
       <c r="M47" s="14"/>
       <c r="S47" s="14"/>
       <c r="T47"/>
     </row>
-    <row r="48" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="21"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
+    <row r="48" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A48" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D48" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="G48" s="14"/>
       <c r="M48" s="14"/>
       <c r="S48" s="14"/>
       <c r="T48"/>
     </row>
-    <row r="49" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
-        <v>177</v>
+        <v>50</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>178</v>
+        <v>5</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>179</v>
+        <v>51</v>
       </c>
       <c r="D49" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E49" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="G49" s="14"/>
       <c r="M49" s="14"/>
       <c r="S49" s="14"/>
       <c r="T49"/>
     </row>
-    <row r="50" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>54</v>
@@ -2896,61 +2887,61 @@
       <c r="E50" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G50" s="14"/>
+      <c r="F50" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="G50" s="15"/>
       <c r="M50" s="14"/>
       <c r="S50" s="14"/>
       <c r="T50"/>
     </row>
-    <row r="51" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
       <c r="D51" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="G51" s="15"/>
-      <c r="M51" s="14"/>
-      <c r="S51" s="14"/>
+      <c r="M51" s="15"/>
+      <c r="S51" s="15"/>
       <c r="T51"/>
     </row>
-    <row r="52" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E52" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G52" s="15"/>
-      <c r="M52" s="15"/>
-      <c r="S52" s="15"/>
+    <row r="52" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D52" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="14"/>
+      <c r="M52" s="14"/>
+      <c r="S52" s="14"/>
       <c r="T52"/>
     </row>
-    <row r="53" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:20" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A53" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>180</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>5</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>181</v>
@@ -2962,31 +2953,31 @@
         <v>1</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>4</v>
+        <v>207</v>
       </c>
       <c r="G53" s="14"/>
       <c r="M53" s="14"/>
       <c r="S53" s="14"/>
       <c r="T53"/>
     </row>
-    <row r="54" spans="1:20" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A54" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D54" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E54" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>210</v>
+    <row r="54" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D54" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="G54" s="14"/>
       <c r="M54" s="14"/>
@@ -2995,13 +2986,13 @@
     </row>
     <row r="55" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="D55" s="1" t="b">
         <v>0</v>
@@ -3017,23 +3008,23 @@
       <c r="S55" s="14"/>
       <c r="T55"/>
     </row>
-    <row r="56" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="1" t="s">
+    <row r="56" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D56" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E56" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F56" s="1" t="s">
+      <c r="D56" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G56" s="14"/>
@@ -3041,23 +3032,23 @@
       <c r="S56" s="14"/>
       <c r="T56"/>
     </row>
-    <row r="57" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D57" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E57" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F57" s="5" t="s">
+    <row r="57" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D57" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G57" s="14"/>
@@ -3065,15 +3056,15 @@
       <c r="S57" s="14"/>
       <c r="T57"/>
     </row>
-    <row r="58" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
-        <v>185</v>
+        <v>312</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>186</v>
+        <v>313</v>
       </c>
       <c r="D58" s="1" t="b">
         <v>0</v>
@@ -3082,73 +3073,73 @@
         <v>1</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G58" s="14"/>
       <c r="M58" s="14"/>
       <c r="S58" s="14"/>
-      <c r="T58"/>
-    </row>
-    <row r="59" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A59" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D59" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E59" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G59" s="14"/>
-      <c r="M59" s="14"/>
-      <c r="S59" s="14"/>
-    </row>
-    <row r="60" spans="1:20" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A60" s="11" t="s">
+    </row>
+    <row r="59" spans="1:20" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A59" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="D59" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F59" s="11"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="16"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="11"/>
+      <c r="R59" s="11"/>
+      <c r="S59" s="16"/>
+    </row>
+    <row r="60" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="B60" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C60" s="10" t="s">
+      <c r="C60" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="D60" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E60" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F60" s="11"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11"/>
-      <c r="K60" s="11"/>
-      <c r="L60" s="11"/>
-      <c r="M60" s="16"/>
-      <c r="N60" s="11"/>
-      <c r="O60" s="11"/>
-      <c r="P60" s="11"/>
-      <c r="Q60" s="11"/>
-      <c r="R60" s="11"/>
-      <c r="S60" s="16"/>
+      <c r="D60" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="G60" s="14"/>
+      <c r="M60" s="14"/>
+      <c r="S60" s="14"/>
+      <c r="T60"/>
     </row>
     <row r="61" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A61" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>282</v>
+        <v>87</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>283</v>
@@ -3159,23 +3150,31 @@
       <c r="E61" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="F61" s="5" t="s">
-        <v>284</v>
-      </c>
+      <c r="F61" s="20"/>
       <c r="G61" s="14"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="20"/>
       <c r="M61" s="14"/>
+      <c r="N61" s="20"/>
+      <c r="O61" s="20"/>
+      <c r="P61" s="20"/>
+      <c r="Q61" s="20"/>
+      <c r="R61" s="20"/>
       <c r="S61" s="14"/>
       <c r="T61"/>
     </row>
-    <row r="62" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:20" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A62" s="5" t="s">
-        <v>285</v>
+        <v>184</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>286</v>
+        <v>185</v>
       </c>
       <c r="D62" s="5" t="b">
         <v>0</v>
@@ -3183,37 +3182,29 @@
       <c r="E62" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="F62" s="20"/>
       <c r="G62" s="14"/>
-      <c r="H62" s="20"/>
-      <c r="I62" s="20"/>
-      <c r="J62" s="20"/>
-      <c r="K62" s="20"/>
-      <c r="L62" s="20"/>
       <c r="M62" s="14"/>
-      <c r="N62" s="20"/>
-      <c r="O62" s="20"/>
-      <c r="P62" s="20"/>
-      <c r="Q62" s="20"/>
-      <c r="R62" s="20"/>
       <c r="S62" s="14"/>
       <c r="T62"/>
     </row>
-    <row r="63" spans="1:20" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A63" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D63" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E63" s="5" t="b">
-        <v>1</v>
+    <row r="63" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>290</v>
+      </c>
+      <c r="B63" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" t="s">
+        <v>292</v>
+      </c>
+      <c r="D63" t="b">
+        <v>0</v>
+      </c>
+      <c r="E63" t="b">
+        <v>1</v>
+      </c>
+      <c r="F63" t="s">
+        <v>298</v>
       </c>
       <c r="G63" s="14"/>
       <c r="M63" s="14"/>
@@ -3222,14 +3213,14 @@
     </row>
     <row r="64" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
+        <v>291</v>
+      </c>
+      <c r="B64" t="s">
+        <v>79</v>
+      </c>
+      <c r="C64" t="s">
         <v>293</v>
       </c>
-      <c r="B64" t="s">
-        <v>82</v>
-      </c>
-      <c r="C64" t="s">
-        <v>295</v>
-      </c>
       <c r="D64" t="b">
         <v>0</v>
       </c>
@@ -3237,136 +3228,136 @@
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="G64" s="14"/>
       <c r="M64" s="14"/>
       <c r="S64" s="14"/>
       <c r="T64"/>
     </row>
-    <row r="65" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A65" t="s">
-        <v>294</v>
-      </c>
-      <c r="B65" t="s">
-        <v>82</v>
-      </c>
-      <c r="C65" t="s">
-        <v>296</v>
-      </c>
-      <c r="D65" t="b">
-        <v>0</v>
-      </c>
-      <c r="E65" t="b">
-        <v>1</v>
-      </c>
-      <c r="F65" t="s">
-        <v>297</v>
-      </c>
-      <c r="G65" s="14"/>
-      <c r="M65" s="14"/>
-      <c r="S65" s="14"/>
-      <c r="T65"/>
-    </row>
-    <row r="66" spans="1:20" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A66" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="D66" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E66" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F66" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="G66" s="16"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="11"/>
-      <c r="J66" s="11"/>
-      <c r="K66" s="11"/>
-      <c r="L66" s="11"/>
-      <c r="M66" s="16"/>
-      <c r="N66" s="11"/>
-      <c r="O66" s="11"/>
-      <c r="P66" s="11"/>
-      <c r="Q66" s="11"/>
-      <c r="R66" s="11"/>
-      <c r="S66" s="16"/>
-    </row>
-    <row r="67" spans="1:20" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A67" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="D67" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E67" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F67" s="5" t="s">
+    <row r="65" spans="1:20" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A65" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D65" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E65" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="G65" s="16"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="16"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="11"/>
+      <c r="Q65" s="11"/>
+      <c r="R65" s="11"/>
+      <c r="S65" s="16"/>
+    </row>
+    <row r="66" spans="1:20" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A66" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D66" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E66" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F66" s="5" t="s">
         <v>19</v>
+      </c>
+      <c r="G66" s="14"/>
+      <c r="M66" s="14"/>
+      <c r="S66" s="14"/>
+      <c r="T66"/>
+    </row>
+    <row r="67" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D67" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E67" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="G67" s="14"/>
       <c r="M67" s="14"/>
       <c r="S67" s="14"/>
       <c r="T67"/>
     </row>
-    <row r="68" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>65</v>
+    <row r="68" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>285</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>286</v>
       </c>
       <c r="D68" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E68" s="1" t="b">
+      <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>208</v>
+        <v>4</v>
       </c>
       <c r="G68" s="14"/>
       <c r="M68" s="14"/>
       <c r="S68" s="14"/>
       <c r="T68"/>
     </row>
-    <row r="69" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A69" t="s">
-        <v>288</v>
-      </c>
-      <c r="B69" t="s">
-        <v>5</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="D69" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E69" t="b">
-        <v>1</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>4</v>
+    <row r="69" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D69" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E69" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>216</v>
       </c>
       <c r="G69" s="14"/>
       <c r="M69" s="14"/>
@@ -3374,63 +3365,63 @@
       <c r="T69"/>
     </row>
     <row r="70" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D70" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E70" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>219</v>
+      <c r="A70" t="s">
+        <v>258</v>
+      </c>
+      <c r="B70" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70" t="s">
+        <v>259</v>
+      </c>
+      <c r="D70" t="b">
+        <v>0</v>
+      </c>
+      <c r="E70" t="b">
+        <v>1</v>
+      </c>
+      <c r="F70" t="s">
+        <v>224</v>
       </c>
       <c r="G70" s="14"/>
       <c r="M70" s="14"/>
       <c r="S70" s="14"/>
       <c r="T70"/>
     </row>
-    <row r="71" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A71" t="s">
-        <v>261</v>
-      </c>
-      <c r="B71" t="s">
-        <v>82</v>
-      </c>
-      <c r="C71" t="s">
-        <v>262</v>
-      </c>
-      <c r="D71" t="b">
-        <v>0</v>
-      </c>
-      <c r="E71" t="b">
-        <v>1</v>
-      </c>
-      <c r="F71" t="s">
-        <v>227</v>
+    <row r="71" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A71" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D71" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E71" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="G71" s="14"/>
       <c r="M71" s="14"/>
       <c r="S71" s="14"/>
       <c r="T71"/>
     </row>
-    <row r="72" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="D72" s="1" t="b">
         <v>0</v>
       </c>
@@ -3438,31 +3429,31 @@
         <v>0</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>211</v>
+        <v>318</v>
       </c>
       <c r="G72" s="14"/>
       <c r="M72" s="14"/>
       <c r="S72" s="14"/>
       <c r="T72"/>
     </row>
-    <row r="73" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
-        <v>71</v>
+        <v>189</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>10</v>
+        <v>190</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>72</v>
+        <v>191</v>
       </c>
       <c r="D73" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E73" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>321</v>
+        <v>206</v>
       </c>
       <c r="G73" s="14"/>
       <c r="M73" s="14"/>
@@ -3471,13 +3462,13 @@
     </row>
     <row r="74" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
-        <v>192</v>
+        <v>250</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>193</v>
+        <v>5</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>194</v>
+        <v>252</v>
       </c>
       <c r="D74" s="1" t="b">
         <v>0</v>
@@ -3486,52 +3477,52 @@
         <v>1</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>209</v>
+        <v>251</v>
       </c>
       <c r="G74" s="14"/>
       <c r="M74" s="14"/>
       <c r="S74" s="14"/>
       <c r="T74"/>
     </row>
-    <row r="75" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
-        <v>253</v>
+        <v>70</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>255</v>
+        <v>71</v>
       </c>
       <c r="D75" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="G75" s="14"/>
       <c r="M75" s="14"/>
       <c r="S75" s="14"/>
       <c r="T75"/>
     </row>
-    <row r="76" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
-        <v>73</v>
+        <v>337</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>74</v>
+        <v>338</v>
       </c>
       <c r="D76" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>339</v>
       </c>
       <c r="G76" s="14"/>
       <c r="M76" s="14"/>
@@ -3543,7 +3534,7 @@
         <v>340</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>10</v>
+        <v>238</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>341</v>
@@ -3567,7 +3558,7 @@
         <v>343</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>241</v>
+        <v>10</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>344</v>
@@ -3578,23 +3569,50 @@
       <c r="E78" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="G78" s="14"/>
+      <c r="H78" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="G78" s="14"/>
+      <c r="I78" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>345</v>
+      </c>
       <c r="M78" s="14"/>
+      <c r="N78" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="P78" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q78" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="R78" s="1" t="s">
+        <v>346</v>
+      </c>
       <c r="S78" s="14"/>
       <c r="T78"/>
     </row>
     <row r="79" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>10</v>
+        <v>238</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D79" s="1" t="b">
         <v>0</v>
@@ -3603,49 +3621,19 @@
         <v>1</v>
       </c>
       <c r="G79" s="14"/>
-      <c r="H79" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="K79" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="L79" s="1" t="s">
-        <v>348</v>
-      </c>
       <c r="M79" s="14"/>
-      <c r="N79" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="O79" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="P79" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q79" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="R79" s="1" t="s">
-        <v>349</v>
-      </c>
       <c r="S79" s="14"/>
       <c r="T79"/>
     </row>
     <row r="80" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
-        <v>350</v>
+        <v>192</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>241</v>
+        <v>10</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>351</v>
+        <v>284</v>
       </c>
       <c r="D80" s="1" t="b">
         <v>0</v>
@@ -3658,59 +3646,61 @@
       <c r="S80" s="14"/>
       <c r="T80"/>
     </row>
-    <row r="81" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
-        <v>195</v>
+        <v>327</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>287</v>
+        <v>328</v>
       </c>
       <c r="D81" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E81" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="G81" s="14"/>
       <c r="M81" s="14"/>
       <c r="S81" s="14"/>
-      <c r="T81"/>
-    </row>
-    <row r="82" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="82" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D82" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E82" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F82" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D82" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E82" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="G82" s="14"/>
       <c r="M82" s="14"/>
       <c r="S82" s="14"/>
     </row>
-    <row r="83" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>328</v>
-      </c>
       <c r="C83" s="1" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D83" s="1" t="b">
         <v>0</v>
@@ -3719,327 +3709,328 @@
         <v>1</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G83" s="14"/>
       <c r="M83" s="14"/>
       <c r="S83" s="14"/>
     </row>
-    <row r="84" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D84" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E84" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>337</v>
+    <row r="84" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D84" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E84" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="G84" s="14"/>
       <c r="M84" s="14"/>
       <c r="S84" s="14"/>
-    </row>
-    <row r="85" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D85" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E85" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F85" s="5" t="s">
+      <c r="T84"/>
+    </row>
+    <row r="85" spans="1:20" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A85" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D85" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E85" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F85" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G85" s="14"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
       <c r="M85" s="14"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
       <c r="S85" s="14"/>
       <c r="T85"/>
     </row>
-    <row r="86" spans="1:20" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
-        <v>298</v>
+        <v>215</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>299</v>
+        <v>5</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>300</v>
+        <v>227</v>
       </c>
       <c r="D86" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G86" s="14"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
-      <c r="L86" s="1"/>
       <c r="M86" s="14"/>
-      <c r="N86" s="1"/>
-      <c r="O86" s="1"/>
-      <c r="P86" s="1"/>
-      <c r="Q86" s="1"/>
-      <c r="R86" s="1"/>
       <c r="S86" s="14"/>
       <c r="T86"/>
     </row>
     <row r="87" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
-        <v>218</v>
+        <v>74</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>230</v>
+        <v>75</v>
       </c>
       <c r="D87" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E87" s="1" t="b">
         <v>0</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G87" s="14"/>
       <c r="M87" s="14"/>
       <c r="S87" s="14"/>
       <c r="T87"/>
     </row>
-    <row r="88" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="D88" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88" s="1" t="b">
         <v>0</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="G88" s="14"/>
       <c r="M88" s="14"/>
       <c r="S88" s="14"/>
       <c r="T88"/>
     </row>
-    <row r="89" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D89" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E89" s="1" t="b">
         <v>0</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>350</v>
       </c>
       <c r="G89" s="14"/>
       <c r="M89" s="14"/>
       <c r="S89" s="14"/>
       <c r="T89"/>
     </row>
-    <row r="90" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A90" s="1" t="s">
+    <row r="90" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D90" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E90" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>353</v>
+      <c r="D90" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E90" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>335</v>
       </c>
       <c r="G90" s="14"/>
       <c r="M90" s="14"/>
       <c r="S90" s="14"/>
       <c r="T90"/>
     </row>
-    <row r="91" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D91" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E91" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>338</v>
+    <row r="91" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A91" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D91" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E91" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="G91" s="14"/>
       <c r="M91" s="14"/>
       <c r="S91" s="14"/>
       <c r="T91"/>
     </row>
-    <row r="92" spans="1:20" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A92" s="1" t="s">
+    <row r="92" spans="1:20" s="5" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A92" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C92" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D92" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E92" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>19</v>
+      <c r="D92" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E92" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>209</v>
       </c>
       <c r="G92" s="14"/>
       <c r="M92" s="14"/>
       <c r="S92" s="14"/>
       <c r="T92"/>
     </row>
-    <row r="93" spans="1:20" s="5" customFormat="1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A93" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="D93" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E93" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>212</v>
+    <row r="93" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D93" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E93" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="G93" s="14"/>
+      <c r="H93" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="M93" s="14"/>
+      <c r="N93" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="O93" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="P93" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q93" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="R93" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="S93" s="14"/>
       <c r="T93"/>
     </row>
     <row r="94" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D94" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E94" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F94" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D94" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E94" s="1" t="b">
-        <v>0</v>
-      </c>
       <c r="G94" s="14"/>
-      <c r="H94" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="K94" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="L94" s="1" t="s">
-        <v>303</v>
-      </c>
       <c r="M94" s="14"/>
-      <c r="N94" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="O94" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="P94" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q94" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="R94" s="1" t="s">
-        <v>304</v>
-      </c>
       <c r="S94" s="14"/>
       <c r="T94"/>
     </row>
-    <row r="95" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A95" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B95" s="1" t="s">
+    <row r="95" spans="1:20" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A95" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D95" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E95" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F95" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D95" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E95" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="G95" s="14"/>
       <c r="M95" s="14"/>
@@ -4048,22 +4039,22 @@
     </row>
     <row r="96" spans="1:20" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A96" s="5" t="s">
-        <v>92</v>
+        <v>146</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="D96" s="5" t="b">
         <v>0</v>
       </c>
       <c r="E96" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="G96" s="14"/>
       <c r="M96" s="14"/>
@@ -4071,180 +4062,180 @@
       <c r="T96"/>
     </row>
     <row r="97" spans="1:21" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A97" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D97" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E97" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F97" s="5" t="s">
+      <c r="A97" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="B97" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="D97" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E97" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F97" s="18" t="s">
         <v>16</v>
       </c>
       <c r="G97" s="14"/>
-      <c r="M97" s="14"/>
+      <c r="H97" s="18"/>
+      <c r="I97" s="18"/>
+      <c r="J97" s="18"/>
+      <c r="K97" s="18"/>
+      <c r="L97" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="M97" s="19"/>
+      <c r="N97" s="18"/>
+      <c r="O97" s="18"/>
+      <c r="P97" s="18"/>
+      <c r="Q97" s="18"/>
+      <c r="R97" s="18" t="s">
+        <v>4</v>
+      </c>
       <c r="S97" s="14"/>
       <c r="T97"/>
     </row>
-    <row r="98" spans="1:21" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A98" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="B98" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C98" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="D98" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E98" s="18" t="b">
-        <v>1</v>
-      </c>
-      <c r="F98" s="18" t="s">
-        <v>16</v>
+    <row r="98" spans="1:21" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A98" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D98" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E98" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="G98" s="14"/>
-      <c r="H98" s="18"/>
-      <c r="I98" s="18"/>
-      <c r="J98" s="18"/>
-      <c r="K98" s="18"/>
-      <c r="L98" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="M98" s="19"/>
-      <c r="N98" s="18"/>
-      <c r="O98" s="18"/>
-      <c r="P98" s="18"/>
-      <c r="Q98" s="18"/>
-      <c r="R98" s="18" t="s">
-        <v>4</v>
-      </c>
+      <c r="M98" s="14"/>
       <c r="S98" s="14"/>
       <c r="T98"/>
     </row>
-    <row r="99" spans="1:21" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>98</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
       <c r="D99" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E99" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="G99" s="14"/>
+      <c r="H99" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="M99" s="14"/>
+      <c r="N99" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P99" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q99" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R99" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="S99" s="14"/>
       <c r="T99"/>
     </row>
     <row r="100" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B100" s="6"/>
-      <c r="C100" s="6"/>
+        <v>148</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="D100" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="F100" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="G100" s="14"/>
-      <c r="H100" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K100" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L100" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="M100" s="14"/>
-      <c r="N100" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O100" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P100" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q100" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R100" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="S100" s="14"/>
       <c r="T100"/>
     </row>
     <row r="101" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="D101" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>4</v>
+        <v>265</v>
       </c>
       <c r="G101" s="14"/>
       <c r="M101" s="14"/>
       <c r="S101" s="14"/>
       <c r="T101"/>
     </row>
-    <row r="102" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A102" s="1" t="s">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>10</v>
+        <v>199</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D102" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E102" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="G102" s="14"/>
       <c r="M102" s="14"/>
@@ -4253,13 +4244,13 @@
     </row>
     <row r="103" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A103" s="1" t="s">
-        <v>201</v>
+        <v>244</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>202</v>
+        <v>245</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>203</v>
+        <v>246</v>
       </c>
       <c r="D103" s="1" t="b">
         <v>0</v>
@@ -4267,105 +4258,105 @@
       <c r="E103" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F103" s="1" t="s">
-        <v>251</v>
+      <c r="F103" s="4" t="s">
+        <v>247</v>
       </c>
       <c r="G103" s="14"/>
       <c r="M103" s="14"/>
       <c r="S103" s="14"/>
       <c r="T103"/>
     </row>
-    <row r="104" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A104" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>249</v>
+        <v>218</v>
+      </c>
+      <c r="B104" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104" t="s">
+        <v>273</v>
       </c>
       <c r="D104" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E104" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F104" s="4" t="s">
-        <v>250</v>
+      <c r="F104" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="G104" s="14"/>
       <c r="M104" s="14"/>
       <c r="S104" s="14"/>
       <c r="T104"/>
     </row>
-    <row r="105" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="1" t="s">
-        <v>221</v>
+    <row r="105" spans="1:21" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A105" t="s">
+        <v>271</v>
       </c>
       <c r="B105" t="s">
         <v>10</v>
       </c>
       <c r="C105" t="s">
-        <v>276</v>
-      </c>
-      <c r="D105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>25</v>
+        <v>272</v>
+      </c>
+      <c r="D105" t="b">
+        <v>1</v>
+      </c>
+      <c r="E105" t="b">
+        <v>1</v>
+      </c>
+      <c r="F105" t="s">
+        <v>335</v>
       </c>
       <c r="G105" s="14"/>
       <c r="M105" s="14"/>
       <c r="S105" s="14"/>
       <c r="T105"/>
-    </row>
-    <row r="106" spans="1:21" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A106" t="s">
-        <v>274</v>
-      </c>
-      <c r="B106" t="s">
-        <v>10</v>
-      </c>
-      <c r="C106" t="s">
-        <v>275</v>
-      </c>
-      <c r="D106" t="b">
-        <v>1</v>
-      </c>
-      <c r="E106" t="b">
-        <v>1</v>
-      </c>
-      <c r="F106" t="s">
-        <v>338</v>
+      <c r="U105"/>
+    </row>
+    <row r="106" spans="1:21" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A106" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D106" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E106" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="G106" s="14"/>
       <c r="M106" s="14"/>
       <c r="S106" s="14"/>
       <c r="T106"/>
-      <c r="U106"/>
-    </row>
-    <row r="107" spans="1:21" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="107" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="D107" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E107" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F107" s="1" t="s">
-        <v>16</v>
+      <c r="F107" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="G107" s="14"/>
       <c r="M107" s="14"/>
@@ -4374,46 +4365,43 @@
     </row>
     <row r="108" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A108" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="D108" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E108" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F108" s="4" t="s">
-        <v>213</v>
+      <c r="F108" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="G108" s="14"/>
       <c r="M108" s="14"/>
       <c r="S108" s="14"/>
       <c r="T108"/>
     </row>
-    <row r="109" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A109" s="1" t="s">
-        <v>105</v>
+        <v>201</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>106</v>
+        <v>202</v>
       </c>
       <c r="D109" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E109" s="1" t="b">
         <v>1</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="G109" s="14"/>
       <c r="M109" s="14"/>
@@ -4422,64 +4410,67 @@
     </row>
     <row r="110" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A110" s="1" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>205</v>
+        <v>107</v>
       </c>
       <c r="D110" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E110" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="G110" s="14"/>
       <c r="M110" s="14"/>
       <c r="S110" s="14"/>
       <c r="T110"/>
     </row>
-    <row r="111" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A111" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B111" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="D111" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E111" s="1" t="b">
         <v>0</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="G111" s="14"/>
       <c r="M111" s="14"/>
       <c r="S111" s="14"/>
       <c r="T111"/>
     </row>
-    <row r="112" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A112" s="1" t="s">
+    <row r="112" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A112" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D112" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E112" s="1" t="b">
-        <v>0</v>
+      <c r="D112" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E112" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>216</v>
       </c>
       <c r="G112" s="14"/>
       <c r="M112" s="14"/>
@@ -4488,14 +4479,14 @@
     </row>
     <row r="113" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A113" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C113" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B113" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="D113" s="5" t="b">
         <v>1</v>
       </c>
@@ -4503,7 +4494,7 @@
         <v>0</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G113" s="14"/>
       <c r="M113" s="14"/>
@@ -4512,46 +4503,46 @@
     </row>
     <row r="114" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A114" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B114" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>116</v>
-      </c>
       <c r="D114" s="5" t="b">
         <v>1</v>
       </c>
       <c r="E114" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="G114" s="14"/>
       <c r="M114" s="14"/>
       <c r="S114" s="14"/>
       <c r="T114"/>
     </row>
-    <row r="115" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A115" s="5" t="s">
+    <row r="115" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A115" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B115" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D115" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E115" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F115" s="5" t="s">
-        <v>16</v>
+      <c r="D115" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E115" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="G115" s="14"/>
       <c r="M115" s="14"/>
@@ -4560,16 +4551,16 @@
     </row>
     <row r="116" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A116" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="D116" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E116" s="1" t="b">
         <v>1</v>
@@ -4584,16 +4575,16 @@
     </row>
     <row r="117" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A117" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="D117" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E117" s="1" t="b">
         <v>1</v>
@@ -4606,15 +4597,15 @@
       <c r="S117" s="14"/>
       <c r="T117"/>
     </row>
-    <row r="118" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A118" s="1" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="D118" s="1" t="b">
         <v>0</v>
@@ -4630,98 +4621,104 @@
       <c r="S118" s="14"/>
       <c r="T118"/>
     </row>
-    <row r="119" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A119" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D119" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E119" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F119" s="1" t="s">
+    <row r="119" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A119" t="s">
+        <v>274</v>
+      </c>
+      <c r="B119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" t="s">
+        <v>275</v>
+      </c>
+      <c r="D119" t="b">
+        <v>0</v>
+      </c>
+      <c r="E119" t="b">
+        <v>1</v>
+      </c>
+      <c r="F119" t="s">
         <v>4</v>
       </c>
       <c r="G119" s="14"/>
-      <c r="M119" s="14"/>
-      <c r="S119" s="14"/>
+      <c r="H119"/>
+      <c r="I119"/>
+      <c r="J119"/>
+      <c r="K119"/>
+      <c r="L119"/>
+      <c r="M119" s="17"/>
+      <c r="N119"/>
+      <c r="O119"/>
+      <c r="P119"/>
+      <c r="Q119"/>
+      <c r="R119"/>
+      <c r="S119" s="17"/>
       <c r="T119"/>
-    </row>
-    <row r="120" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A120" t="s">
-        <v>277</v>
-      </c>
-      <c r="B120" t="s">
-        <v>5</v>
-      </c>
-      <c r="C120" t="s">
-        <v>278</v>
-      </c>
-      <c r="D120" t="b">
-        <v>0</v>
-      </c>
-      <c r="E120" t="b">
-        <v>1</v>
-      </c>
-      <c r="F120" t="s">
+      <c r="U119"/>
+    </row>
+    <row r="120" spans="1:21" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A120" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D120" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E120" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G120" s="14"/>
+      <c r="M120" s="14"/>
+      <c r="S120" s="14"/>
+      <c r="T120"/>
+    </row>
+    <row r="121" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A121" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D121" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E121" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F121" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G120" s="14"/>
-      <c r="H120"/>
-      <c r="I120"/>
-      <c r="J120"/>
-      <c r="K120"/>
-      <c r="L120"/>
-      <c r="M120" s="17"/>
-      <c r="N120"/>
-      <c r="O120"/>
-      <c r="P120"/>
-      <c r="Q120"/>
-      <c r="R120"/>
-      <c r="S120" s="17"/>
-      <c r="T120"/>
-      <c r="U120"/>
-    </row>
-    <row r="121" spans="1:21" s="5" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A121" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D121" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E121" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F121" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="G121" s="14"/>
+      <c r="H121" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="M121" s="14"/>
+      <c r="N121" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="S121" s="14"/>
       <c r="T121"/>
     </row>
     <row r="122" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A122" s="1" t="s">
-        <v>128</v>
+        <v>236</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D122" s="1" t="b">
         <v>1</v>
@@ -4745,13 +4742,13 @@
     </row>
     <row r="123" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A123" s="1" t="s">
-        <v>239</v>
+        <v>310</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>130</v>
+        <v>311</v>
       </c>
       <c r="D123" s="1" t="b">
         <v>1</v>
@@ -4759,111 +4756,81 @@
       <c r="E123" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F123" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="G123" s="14"/>
-      <c r="H123" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="M123" s="14"/>
-      <c r="N123" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="S123" s="14"/>
-      <c r="T123"/>
     </row>
     <row r="124" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A124" s="1" t="s">
-        <v>313</v>
+        <v>128</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>314</v>
+        <v>129</v>
       </c>
       <c r="D124" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E124" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>335</v>
       </c>
       <c r="G124" s="14"/>
       <c r="M124" s="14"/>
       <c r="S124" s="14"/>
-    </row>
-    <row r="125" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="T124"/>
+    </row>
+    <row r="125" spans="1:21" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A125" s="1" t="s">
-        <v>131</v>
+        <v>253</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>132</v>
+        <v>254</v>
       </c>
       <c r="D125" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E125" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>338</v>
+        <v>255</v>
       </c>
       <c r="G125" s="14"/>
       <c r="M125" s="14"/>
       <c r="S125" s="14"/>
       <c r="T125"/>
     </row>
-    <row r="126" spans="1:21" s="1" customFormat="1" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A126" s="1" t="s">
-        <v>256</v>
+        <v>130</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>257</v>
+        <v>132</v>
       </c>
       <c r="D126" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E126" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="G126" s="14"/>
       <c r="M126" s="14"/>
       <c r="S126" s="14"/>
       <c r="T126"/>
-    </row>
-    <row r="127" spans="1:21" s="1" customFormat="1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A127" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D127" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E127" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G127" s="14"/>
-      <c r="M127" s="14"/>
-      <c r="S127" s="14"/>
-      <c r="T127"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4871,10 +4838,10 @@
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F20" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -4901,48 +4868,48 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="6" spans="1:2" ht="19.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="19.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="19.3" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B8" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.4"/>
